--- a/biology/Histoire de la zoologie et de la botanique/Musée_d'histoire_naturelle_et_des_sciences_du_Nouveau-Mexique/Musée_d'histoire_naturelle_et_des_sciences_du_Nouveau-Mexique.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Musée_d'histoire_naturelle_et_des_sciences_du_Nouveau-Mexique/Musée_d'histoire_naturelle_et_des_sciences_du_Nouveau-Mexique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_d%27histoire_naturelle_et_des_sciences_du_Nouveau-Mexique</t>
+          <t>Musée_d'histoire_naturelle_et_des_sciences_du_Nouveau-Mexique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Musée d'histoire naturelle et des sciences du Nouveau-Mexique est un musée fondé en 1986 situé au 1801 Mountain Road NW à Albuquerque au Nouveau-Mexique. Le musée a comme mission de préserver et d'interpréter l'héritage naturelle et scientifique de la région à travers ses collections, ses recherches, ses expositions et ses programmes. Le musée est agréé par l'Association Américaine des Musées. Le « Lockheed Martin DynaTheather » (un théâtre à écran géant, similaire à IMAX).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_d%27histoire_naturelle_et_des_sciences_du_Nouveau-Mexique</t>
+          <t>Musée_d'histoire_naturelle_et_des_sciences_du_Nouveau-Mexique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_d%27histoire_naturelle_et_des_sciences_du_Nouveau-Mexique</t>
+          <t>Musée_d'histoire_naturelle_et_des_sciences_du_Nouveau-Mexique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -545,7 +561,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_d%27histoire_naturelle_et_des_sciences_du_Nouveau-Mexique</t>
+          <t>Musée_d'histoire_naturelle_et_des_sciences_du_Nouveau-Mexique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -563,29 +579,134 @@
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le Musée d'histoire naturelle et des sciences du Nouveau-Mexique a des expositions permanentes, temporaires ainsi que des expositions virtuelles. Deux étages de galeries d'exposition dédiées à l'astronomie et l'exploration spatiale.
-Expositions permanentes
-Time Tracks: a walk though time (Voyage dans le temps) - exposition principale proposant un voyage à travers des milliards d'années afin d'explorer l'histoire naturelle du Nouveau Mexique, depuis la conception de l'univers, jusqu'à nos jours[1].
-Emergence[1] (Émergence)
-The Bisti Beast[1]
-The Hall of the Stars[1] (La salle des étoiles)
-Entrance dinosaurs[1] (L'arrivée des dinosaures)
-The naturalist center[1]
-Fossilworks[1]
-Kiwanis Learning garden[1]
-Expositions temporaires
-Chocolate: The Exhibition[2] (Chocolat, l'exposition)
-Mars: Science and culture[2] (Mars: Science et culture)
-Back to bones[2] (Retour aux os)
-Expositions virtuelles
-Virtual tour- Sayaka Ganz: Reclaimed Creations (Visite virtuelle-Sayaka Ganz, créations réclamées)[3]
-The new tree of life[3] (Le nouvel arbre de la vie)
-Growing green goop[3] (Faire pousser de la glu verte)
-New Mexico, The tyrannosaur state[3] (Le Nouveau-Mexique, l'état du tyrannosaure)
-New Mexico, Living landscapes[3] (Le Nouveau-Mexique, Paysages vivants)
-The volcanoes of New Mexico[3] (Les volcans du Nouveau-Mexique)</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Musée d'histoire naturelle et des sciences du Nouveau-Mexique a des expositions permanentes, temporaires ainsi que des expositions virtuelles. Deux étages de galeries d'exposition dédiées à l'astronomie et l'exploration spatiale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Musée_d'histoire_naturelle_et_des_sciences_du_Nouveau-Mexique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9e_d%27histoire_naturelle_et_des_sciences_du_Nouveau-Mexique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Expositions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Expositions permanentes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Time Tracks: a walk though time (Voyage dans le temps) - exposition principale proposant un voyage à travers des milliards d'années afin d'explorer l'histoire naturelle du Nouveau Mexique, depuis la conception de l'univers, jusqu'à nos jours.
+Emergence (Émergence)
+The Bisti Beast
+The Hall of the Stars (La salle des étoiles)
+Entrance dinosaurs (L'arrivée des dinosaures)
+The naturalist center
+Fossilworks
+Kiwanis Learning garden</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Musée_d'histoire_naturelle_et_des_sciences_du_Nouveau-Mexique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9e_d%27histoire_naturelle_et_des_sciences_du_Nouveau-Mexique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Expositions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Expositions temporaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Chocolate: The Exhibition (Chocolat, l'exposition)
+Mars: Science and culture (Mars: Science et culture)
+Back to bones (Retour aux os)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Musée_d'histoire_naturelle_et_des_sciences_du_Nouveau-Mexique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9e_d%27histoire_naturelle_et_des_sciences_du_Nouveau-Mexique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Expositions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Expositions virtuelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Virtual tour- Sayaka Ganz: Reclaimed Creations (Visite virtuelle-Sayaka Ganz, créations réclamées)
+The new tree of life (Le nouvel arbre de la vie)
+Growing green goop (Faire pousser de la glu verte)
+New Mexico, The tyrannosaur state (Le Nouveau-Mexique, l'état du tyrannosaure)
+New Mexico, Living landscapes (Le Nouveau-Mexique, Paysages vivants)
+The volcanoes of New Mexico (Les volcans du Nouveau-Mexique)</t>
         </is>
       </c>
     </row>
